--- a/일괄등록/04_스낵제과.xlsx
+++ b/일괄등록/04_스낵제과.xlsx
@@ -3092,34 +3092,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>츄파춥스 팝아트틴/150개,스낵,농심,츄파춥스</t>
-  </si>
-  <si>
-    <t>츄파춥스 미니튜브®/50개,스낵,농심,츄파춥스</t>
-  </si>
-  <si>
-    <t>츄파춥스 슬림휠/120개 ,스낵,농심,츄파춥스</t>
-  </si>
-  <si>
-    <t>멘토스C0867믹스그레이프(바틀)/1case,스낵,농심,멘토스</t>
-  </si>
-  <si>
-    <t>멘토스C0868스무디(바틀)/1case,스낵,농심,멘토스</t>
-  </si>
-  <si>
-    <t>멘토스C0869요구르트맛(바틀)/1case,스낵,농심,멘토스</t>
-  </si>
-  <si>
-    <t>츄파춥스 크레모사딸기디스플레이/20개,스낵,농심,츄파춥스</t>
-  </si>
-  <si>
-    <t>멘토스C1035푸르티/1case,스낵,농심,멘토스</t>
-  </si>
-  <si>
-    <t>멘토스C1036뉴레인보우/1case,스낵,농심,멘토스</t>
-  </si>
-  <si>
-    <t>멘토스C1033믹스그레이프/1case,스낵,농심,멘토스</t>
+    <t>츄파춥스 팝아트틴/150개,스낵,사탕,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>츄파춥스 미니튜브®/50개,스낵,사탕,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>츄파춥스 슬림휠/120개 ,스낵,사탕,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>멘토스C0867믹스그레이프(바틀)/1case,스낵,사탕,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C0868스무디(바틀)/1case,스낵,사탕,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C0869요구르트맛(바틀)/1case,스낵,사탕,농심,멘토스</t>
+  </si>
+  <si>
+    <t>츄파춥스 크레모사딸기디스플레이/20개,스낵,사탕,농심,츄파춥스</t>
+  </si>
+  <si>
+    <t>멘토스C1035푸르티/1case,스낵,사탕,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C1036뉴레인보우/1case,스낵,사탕,농심,멘토스</t>
+  </si>
+  <si>
+    <t>멘토스C1033믹스그레이프/1case,스낵,사탕,농심,멘토스</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3828,6 +3828,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3963,7 +3976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4236,6 +4249,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4586,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG17" sqref="CG17"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ12" sqref="BJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4788,7 +4810,7 @@
       <c r="BF1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="85" t="s">
+      <c r="BG1" s="86" t="s">
         <v>55</v>
       </c>
       <c r="BH1" s="88" t="s">
@@ -4984,8 +5006,8 @@
         <v>91</v>
       </c>
       <c r="BF2" s="19"/>
-      <c r="BG2" s="19">
-        <v>1798</v>
+      <c r="BG2" s="91">
+        <v>243</v>
       </c>
       <c r="BH2" s="19"/>
       <c r="BI2" s="19"/>
@@ -5148,8 +5170,8 @@
         <v>91</v>
       </c>
       <c r="BF3" s="6"/>
-      <c r="BG3" s="6">
-        <v>1798</v>
+      <c r="BG3" s="92">
+        <v>243</v>
       </c>
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
@@ -5312,8 +5334,8 @@
         <v>91</v>
       </c>
       <c r="BF4" s="6"/>
-      <c r="BG4" s="6">
-        <v>1798</v>
+      <c r="BG4" s="92">
+        <v>243</v>
       </c>
       <c r="BH4" s="6"/>
       <c r="BI4" s="6"/>
@@ -5476,8 +5498,8 @@
         <v>91</v>
       </c>
       <c r="BF5" s="6"/>
-      <c r="BG5" s="6">
-        <v>1798</v>
+      <c r="BG5" s="92">
+        <v>264</v>
       </c>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
@@ -5640,8 +5662,8 @@
         <v>91</v>
       </c>
       <c r="BF6" s="6"/>
-      <c r="BG6" s="6">
-        <v>1798</v>
+      <c r="BG6" s="92">
+        <v>264</v>
       </c>
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
@@ -5804,8 +5826,8 @@
         <v>91</v>
       </c>
       <c r="BF7" s="6"/>
-      <c r="BG7" s="6">
-        <v>1798</v>
+      <c r="BG7" s="92">
+        <v>264</v>
       </c>
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
@@ -7444,8 +7466,8 @@
         <v>91</v>
       </c>
       <c r="BF17" s="6"/>
-      <c r="BG17" s="6">
-        <v>1798</v>
+      <c r="BG17" s="92">
+        <v>243</v>
       </c>
       <c r="BH17" s="6"/>
       <c r="BI17" s="6"/>
@@ -7608,8 +7630,8 @@
         <v>91</v>
       </c>
       <c r="BF18" s="6"/>
-      <c r="BG18" s="6">
-        <v>1798</v>
+      <c r="BG18" s="92">
+        <v>264</v>
       </c>
       <c r="BH18" s="6"/>
       <c r="BI18" s="6"/>
@@ -7772,8 +7794,8 @@
         <v>91</v>
       </c>
       <c r="BF19" s="6"/>
-      <c r="BG19" s="6">
-        <v>1798</v>
+      <c r="BG19" s="92">
+        <v>264</v>
       </c>
       <c r="BH19" s="6"/>
       <c r="BI19" s="6"/>
@@ -7936,8 +7958,8 @@
         <v>91</v>
       </c>
       <c r="BF20" s="6"/>
-      <c r="BG20" s="6">
-        <v>1798</v>
+      <c r="BG20" s="92">
+        <v>264</v>
       </c>
       <c r="BH20" s="6"/>
       <c r="BI20" s="6"/>
@@ -13676,7 +13698,7 @@
         <v>91</v>
       </c>
       <c r="BF55" s="25"/>
-      <c r="BG55" s="25">
+      <c r="BG55" s="93">
         <v>1798</v>
       </c>
       <c r="BH55" s="25"/>
@@ -17448,7 +17470,7 @@
         <v>91</v>
       </c>
       <c r="BF78" s="19"/>
-      <c r="BG78" s="19">
+      <c r="BG78" s="15">
         <v>1798</v>
       </c>
       <c r="BH78" s="19"/>
@@ -17776,7 +17798,7 @@
         <v>91</v>
       </c>
       <c r="BF80" s="25"/>
-      <c r="BG80" s="25">
+      <c r="BG80" s="93">
         <v>1798</v>
       </c>
       <c r="BH80" s="25"/>
@@ -21384,7 +21406,7 @@
         <v>91</v>
       </c>
       <c r="BF102" s="25"/>
-      <c r="BG102" s="25">
+      <c r="BG102" s="93">
         <v>1798</v>
       </c>
       <c r="BH102" s="25"/>
